--- a/partransverse/transverse_matrix.xlsx
+++ b/partransverse/transverse_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shy\program\tools\partransverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370ADFA8-99D8-4D8E-81D6-F57B2DCC1B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2043B90-E0FD-45EE-A1C4-D5E19F50DAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31A87168-2DAF-48F9-995C-3537F2386ABD}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532E4C58-D5C2-42B3-9F7E-0A5C0E4290A2}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1637,6 +1637,7 @@
         <v>-1.67551608191455</v>
       </c>
       <c r="R17">
+        <f>5.02654824574366</f>
         <v>5.0265482457436601</v>
       </c>
       <c r="S17">
@@ -1933,6 +1934,7 @@
         <v>-1.67551608191455</v>
       </c>
       <c r="R21">
+        <f>1.67551608191455</f>
         <v>1.67551608191455</v>
       </c>
       <c r="S21">
@@ -2179,5 +2181,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>